--- a/data/trans_dic/P04D$colectiva-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P04D$colectiva-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,91</t>
+          <t>0,62; 2,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,22</t>
+          <t>0,12; 1,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,29</t>
+          <t>2,18; 5,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,73</t>
+          <t>1,13; 2,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,15</t>
+          <t>0,63; 2,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,85</t>
+          <t>2,03; 3,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,1</t>
+          <t>1,03; 2,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,59</t>
+          <t>0,52; 1,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,18</t>
+          <t>2,38; 4,03</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,37</t>
+          <t>2,66; 4,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,05</t>
+          <t>1,71; 3,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,73</t>
+          <t>3,17; 5,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,55</t>
+          <t>1,95; 3,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,65</t>
+          <t>1,34; 2,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,73</t>
+          <t>3,26; 5,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,74</t>
+          <t>2,49; 3,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,56</t>
+          <t>1,64; 2,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,46</t>
+          <t>3,64; 5,44</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 8,67</t>
+          <t>4,15; 8,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 10,27</t>
+          <t>5,62; 10,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,1; 15,18</t>
+          <t>9,98; 15,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 8,18</t>
+          <t>3,63; 7,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,49</t>
+          <t>5,08; 9,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,59; 16,21</t>
+          <t>11,48; 16,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,5</t>
+          <t>4,61; 7,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,89; 9,03</t>
+          <t>5,7; 9,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,41; 14,96</t>
+          <t>11,63; 14,98</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,83</t>
+          <t>2,58; 3,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,45</t>
+          <t>2,24; 3,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 6,89</t>
+          <t>4,56; 6,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,31</t>
+          <t>2,19; 3,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,12</t>
+          <t>1,99; 3,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 6,73</t>
+          <t>4,7; 6,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,39</t>
+          <t>2,52; 3,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,04</t>
+          <t>2,25; 3,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 6,61</t>
+          <t>5,1; 6,6</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene calefacción colectiva en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11321</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3824</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17877</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23267</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12606</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21096</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>34588</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>16430</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>38974</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6028; 19757</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>907; 10610</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11182; 27318</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15133; 35851</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6233; 22790</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15305; 28303</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23828; 48686</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9058; 27885</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30235; 51070</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>66804</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48295</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>104476</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>46725</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37226</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>103365</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>113529</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>85521</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>207841</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>52088; 85400</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35473; 64563</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>72546; 134986</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34204; 62914</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>26713; 50625</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>72773; 126804</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>92502; 134937</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>66579; 104873</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>164291; 246047</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29405</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41989</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>80568</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25583</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>38121</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>90485</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>54988</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>80110</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>171053</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19973; 40804</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30749; 57089</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>64549; 97692</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16649; 35880</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>27896; 51853</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>75551; 106326</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>43345; 71831</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>62491; 98778</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>151797; 195484</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>107529</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>94107</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>202921</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>95576</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>87953</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>214947</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>203105</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>182061</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>417867</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>88019; 129517</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>75541; 114887</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>157134; 238284</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>77861; 117170</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>70247; 107926</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>171224; 244930</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>175764; 233441</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>155648; 211342</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>361683; 468050</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>